--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_AV-MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.8976034548685287</v>
+        <v>1.27141243209172</v>
       </c>
       <c r="D2">
-        <v>0.3695256862746077</v>
+        <v>0.2168599573729835</v>
       </c>
       <c r="E2">
         <v>3.537379702994131</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.2614872932294472</v>
+        <v>-0.3323401897318211</v>
       </c>
       <c r="D3">
-        <v>0.7937488190048851</v>
+        <v>0.7427781762418328</v>
       </c>
       <c r="E3">
         <v>3.537379702994131</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.05794075680621526</v>
+        <v>-0.07202454091174415</v>
       </c>
       <c r="D4">
-        <v>0.9538027129764874</v>
+        <v>0.9432331616470808</v>
       </c>
       <c r="E4">
         <v>3.537379702994131</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.2577643413516324</v>
+        <v>0.2074131642902062</v>
       </c>
       <c r="D5">
-        <v>0.796620374596239</v>
+        <v>0.8375951108322517</v>
       </c>
       <c r="E5">
         <v>3.537379702994131</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-1.506802293997662</v>
+        <v>-1.992463347437849</v>
       </c>
       <c r="D6">
-        <v>0.1320494550938247</v>
+        <v>0.05887219492345674</v>
       </c>
       <c r="E6">
         <v>2.997357133040603</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.081976702479787</v>
+        <v>-1.248632426695003</v>
       </c>
       <c r="D7">
-        <v>0.2794182496469093</v>
+        <v>0.2249239914046868</v>
       </c>
       <c r="E7">
         <v>2.997357133040603</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.7087392030841255</v>
+        <v>-0.5902159746409876</v>
       </c>
       <c r="D8">
-        <v>0.4785847220714428</v>
+        <v>0.5610600912928025</v>
       </c>
       <c r="E8">
         <v>2.997357133040603</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.193128012198002</v>
+        <v>0.2803589043019701</v>
       </c>
       <c r="D9">
-        <v>0.8468820736032987</v>
+        <v>0.781821593292739</v>
       </c>
       <c r="E9">
         <v>3.677530228228975</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.5458034270685377</v>
+        <v>0.5033970510100696</v>
       </c>
       <c r="D10">
-        <v>0.5852735738025259</v>
+        <v>0.6196883415105927</v>
       </c>
       <c r="E10">
         <v>3.677530228228975</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.3243532802872651</v>
+        <v>0.3508812520361659</v>
       </c>
       <c r="D11">
-        <v>0.7457109889338223</v>
+        <v>0.7290151754155669</v>
       </c>
       <c r="E11">
         <v>3.572755901057926</v>
